--- a/Plan/Angular_learning_plan_pengshengnan.xlsx
+++ b/Plan/Angular_learning_plan_pengshengnan.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengnan.peng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psn\Study\Angularjs\AngularSelfLearning\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20180205" sheetId="1" r:id="rId1"/>
+    <sheet name="20180228" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>计划：</t>
   </si>
@@ -55,12 +56,253 @@
 4.Testing例子跑一跑
 5.速查表过一遍</t>
   </si>
+  <si>
+    <r>
+      <t>2018/2/5-2018/2/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/2/15-2018/2/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.DateBinging
+ 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">显示数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语法</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.DateBinging
+ 1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">生命周期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件交互
+ 1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>式
+ 1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件
+ 1.7属性型指令
+ 1.8管道
+ 1.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到最后看）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/3/1-2018/3/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/3/7-2018/3/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/3/15-2018/3/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +315,22 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,13 +369,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -397,7 +659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -460,6 +724,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -470,6 +803,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010040761CF43C6D364FBB7CCBD4A4FAB577" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="824ed2a91e85b040085821046f000c93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ceec906-4ee2-41aa-ae61-f98d1471b061" xmlns:ns4="0ad5abcd-0232-42c1-8a3f-2bc7b7c03134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a5778ea0063e0a589b0b01f7fd589d1" ns3:_="" ns4:_="">
     <xsd:import namespace="9ceec906-4ee2-41aa-ae61-f98d1471b061"/>
@@ -640,12 +979,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4626F8-6B63-4359-8812-62AD799E3862}">
   <ds:schemaRefs>
@@ -655,6 +988,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B316C0E5-8078-472F-AF00-60563D726F9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ceec906-4ee2-41aa-ae61-f98d1471b061"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ad5abcd-0232-42c1-8a3f-2bc7b7c03134"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AC6759C-D20C-44C4-8015-1ACF06086CA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -671,21 +1021,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B316C0E5-8078-472F-AF00-60563D726F9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ceec906-4ee2-41aa-ae61-f98d1471b061"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0ad5abcd-0232-42c1-8a3f-2bc7b7c03134"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>